--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>958.2856268687143</v>
+        <v>1053.08208041844</v>
       </c>
       <c r="AB2" t="n">
-        <v>1311.168671259902</v>
+        <v>1440.873361131008</v>
       </c>
       <c r="AC2" t="n">
-        <v>1186.032573511644</v>
+        <v>1303.358429823128</v>
       </c>
       <c r="AD2" t="n">
-        <v>958285.6268687143</v>
+        <v>1053082.080418441</v>
       </c>
       <c r="AE2" t="n">
-        <v>1311168.671259902</v>
+        <v>1440873.361131008</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434382374249833e-06</v>
+        <v>2.067898025338529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.18815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1186032.573511644</v>
+        <v>1303358.429823128</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.6581018117088</v>
+        <v>519.9210841795009</v>
       </c>
       <c r="AB3" t="n">
-        <v>628.924493583035</v>
+        <v>711.3789646737948</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.9008226165402</v>
+        <v>643.4859547119746</v>
       </c>
       <c r="AD3" t="n">
-        <v>459658.1018117088</v>
+        <v>519921.0841795009</v>
       </c>
       <c r="AE3" t="n">
-        <v>628924.493583035</v>
+        <v>711378.9646737948</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260298307505969e-06</v>
+        <v>3.258591635450136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.447265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>568900.8226165401</v>
+        <v>643485.9547119746</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.4166266166028</v>
+        <v>409.2168333895038</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.0331966455461</v>
+        <v>559.9085248160661</v>
       </c>
       <c r="AC4" t="n">
-        <v>442.3605547200966</v>
+        <v>506.4716410441702</v>
       </c>
       <c r="AD4" t="n">
-        <v>357416.6266166028</v>
+        <v>409216.8333895038</v>
       </c>
       <c r="AE4" t="n">
-        <v>489033.1966455461</v>
+        <v>559908.5248160661</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.592027824899034e-06</v>
+        <v>3.736834275821664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.72526041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>442360.5547200966</v>
+        <v>506471.6410441701</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>335.3745577891173</v>
+        <v>387.0041723614261</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.8742656483341</v>
+        <v>529.5161820440071</v>
       </c>
       <c r="AC5" t="n">
-        <v>415.0799497689331</v>
+        <v>478.9799008103555</v>
       </c>
       <c r="AD5" t="n">
-        <v>335374.5577891173</v>
+        <v>387004.1723614261</v>
       </c>
       <c r="AE5" t="n">
-        <v>458874.2656483341</v>
+        <v>529516.1820440071</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.685673956603297e-06</v>
+        <v>3.871840571428938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.31510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>415079.9497689331</v>
+        <v>478979.9008103555</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.9376605149857</v>
+        <v>740.6944725100132</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.7970420958274</v>
+        <v>1013.450854422091</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.9672893063694</v>
+        <v>916.7285272632538</v>
       </c>
       <c r="AD2" t="n">
-        <v>664937.6605149858</v>
+        <v>740694.4725100131</v>
       </c>
       <c r="AE2" t="n">
-        <v>909797.0420958274</v>
+        <v>1013450.854422091</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770225559510595e-06</v>
+        <v>2.591543625091629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>822967.2893063694</v>
+        <v>916728.5272632538</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.8695701436313</v>
+        <v>414.2888601276289</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.8623986630028</v>
+        <v>566.8482955611961</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.3471100888702</v>
+        <v>512.7490898094143</v>
       </c>
       <c r="AD3" t="n">
-        <v>363869.5701436313</v>
+        <v>414288.8601276289</v>
       </c>
       <c r="AE3" t="n">
-        <v>497862.3986630028</v>
+        <v>566848.295561196</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.552957332441295e-06</v>
+        <v>3.737433495112503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.314453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>450347.1100888702</v>
+        <v>512749.0898094143</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.0559761899914</v>
+        <v>366.3899253194174</v>
       </c>
       <c r="AB4" t="n">
-        <v>432.4417300287406</v>
+        <v>501.3108598047362</v>
       </c>
       <c r="AC4" t="n">
-        <v>391.1700982505768</v>
+        <v>453.4664549391821</v>
       </c>
       <c r="AD4" t="n">
-        <v>316055.9761899914</v>
+        <v>366389.9253194174</v>
       </c>
       <c r="AE4" t="n">
-        <v>432441.7300287405</v>
+        <v>501310.8598047362</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.735504599326663e-06</v>
+        <v>4.004675826595652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.494140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>391170.0982505768</v>
+        <v>453466.4549391821</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.873956449568</v>
+        <v>343.1596367346753</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.2500914338166</v>
+        <v>469.5261541150899</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.5279774443598</v>
+        <v>424.7152369504411</v>
       </c>
       <c r="AD2" t="n">
-        <v>288873.956449568</v>
+        <v>343159.6367346753</v>
       </c>
       <c r="AE2" t="n">
-        <v>395250.0914338166</v>
+        <v>469526.1541150899</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.723816386489068e-06</v>
+        <v>4.214080158495303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.880859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>357527.9774443598</v>
+        <v>424715.2369504411</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.8544295422997</v>
+        <v>344.1401098274071</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.5916179747122</v>
+        <v>470.8676806559856</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.7414705750367</v>
+        <v>425.928730081118</v>
       </c>
       <c r="AD3" t="n">
-        <v>289854.4295422997</v>
+        <v>344140.1098274071</v>
       </c>
       <c r="AE3" t="n">
-        <v>396591.6179747122</v>
+        <v>470867.6806559856</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72845074349532e-06</v>
+        <v>4.221250080816171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.85807291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>358741.4705750367</v>
+        <v>425928.730081118</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.0959634416653</v>
+        <v>425.2462220238774</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.0133805455725</v>
+        <v>581.8406415123334</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.8156122970335</v>
+        <v>526.3105873048647</v>
       </c>
       <c r="AD2" t="n">
-        <v>369095.9634416653</v>
+        <v>425246.2220238774</v>
       </c>
       <c r="AE2" t="n">
-        <v>505013.3805455725</v>
+        <v>581840.6415123334</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.443088012345172e-06</v>
+        <v>3.692224177423931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>456815.6122970335</v>
+        <v>526310.5873048648</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.8123593772822</v>
+        <v>346.8559011017292</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.8482527709081</v>
+        <v>474.5835460897682</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.8283493485786</v>
+        <v>429.2899585331502</v>
       </c>
       <c r="AD3" t="n">
-        <v>298812.3593772822</v>
+        <v>346855.9011017291</v>
       </c>
       <c r="AE3" t="n">
-        <v>408848.2527709081</v>
+        <v>474583.5460897682</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774778838921007e-06</v>
+        <v>4.19350652301468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>369828.3493485785</v>
+        <v>429289.9585331503</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.9874850116248</v>
+        <v>354.2872963996107</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.2466468053813</v>
+        <v>484.7515089863518</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.8567913909894</v>
+        <v>438.4875053217095</v>
       </c>
       <c r="AD2" t="n">
-        <v>293987.4850116248</v>
+        <v>354287.2963996107</v>
       </c>
       <c r="AE2" t="n">
-        <v>402246.6468053813</v>
+        <v>484751.5089863518</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.618252381134763e-06</v>
+        <v>4.13811644406923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.916015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>363856.7913909894</v>
+        <v>438487.5053217096</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>730.4523684123453</v>
+        <v>815.108854082177</v>
       </c>
       <c r="AB2" t="n">
-        <v>999.4371557459195</v>
+        <v>1115.267894219943</v>
       </c>
       <c r="AC2" t="n">
-        <v>904.0522763203862</v>
+        <v>1008.828291683912</v>
       </c>
       <c r="AD2" t="n">
-        <v>730452.3684123453</v>
+        <v>815108.854082177</v>
       </c>
       <c r="AE2" t="n">
-        <v>999437.1557459196</v>
+        <v>1115267.894219943</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.678897783754681e-06</v>
+        <v>2.447642059414787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.55794270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>904052.2763203862</v>
+        <v>1008828.291683912</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.1460070185054</v>
+        <v>444.3799447310161</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.9737582453538</v>
+        <v>608.0202450405112</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.6801223707315</v>
+        <v>549.9916462156176</v>
       </c>
       <c r="AD3" t="n">
-        <v>385146.0070185054</v>
+        <v>444379.9447310161</v>
       </c>
       <c r="AE3" t="n">
-        <v>526973.7582453538</v>
+        <v>608020.2450405112</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.474029134361873e-06</v>
+        <v>3.606853153346294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59440104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>476680.1223707314</v>
+        <v>549991.6462156177</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.5554962301621</v>
+        <v>371.2299999442119</v>
       </c>
       <c r="AB4" t="n">
-        <v>438.5981718525166</v>
+        <v>507.9332634354025</v>
       </c>
       <c r="AC4" t="n">
-        <v>396.738977907312</v>
+        <v>459.4568256619395</v>
       </c>
       <c r="AD4" t="n">
-        <v>320555.4962301622</v>
+        <v>371229.9999442119</v>
       </c>
       <c r="AE4" t="n">
-        <v>438598.1718525166</v>
+        <v>507933.2634354025</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.72461946491317e-06</v>
+        <v>3.972185360390074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.435546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>396738.977907312</v>
+        <v>459456.8256619396</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.5776786781057</v>
+        <v>372.2521823921554</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.9967669732999</v>
+        <v>509.3318585561858</v>
       </c>
       <c r="AC5" t="n">
-        <v>398.0040930727084</v>
+        <v>460.7219408273358</v>
       </c>
       <c r="AD5" t="n">
-        <v>321577.6786781057</v>
+        <v>372252.1823921554</v>
       </c>
       <c r="AE5" t="n">
-        <v>439996.7669733</v>
+        <v>509331.8585561858</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.725098056071595e-06</v>
+        <v>3.972883091877935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>398004.0930727083</v>
+        <v>460721.9408273358</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.6697495301722</v>
+        <v>362.0673045239508</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.1261041541352</v>
+        <v>495.3964593318085</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.6024900033014</v>
+        <v>448.1165165464774</v>
       </c>
       <c r="AD2" t="n">
-        <v>302669.7495301722</v>
+        <v>362067.3045239509</v>
       </c>
       <c r="AE2" t="n">
-        <v>414126.1041541352</v>
+        <v>495396.4593318085</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.516236105491265e-06</v>
+        <v>4.031601299015415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>374602.4900033014</v>
+        <v>448116.5165464774</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>503.4588230546265</v>
+        <v>569.3245256304099</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.854572739038</v>
+        <v>778.9749327929418</v>
       </c>
       <c r="AC2" t="n">
-        <v>623.1112591302884</v>
+        <v>704.6306585053674</v>
       </c>
       <c r="AD2" t="n">
-        <v>503458.8230546265</v>
+        <v>569324.5256304098</v>
       </c>
       <c r="AE2" t="n">
-        <v>688854.5727390379</v>
+        <v>778974.9327929418</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073858431502266e-06</v>
+        <v>3.079354583825737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.61848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>623111.2591302884</v>
+        <v>704630.6585053673</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.7505496626987</v>
+        <v>353.1498265945361</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.6049025769947</v>
+        <v>483.1951726174226</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.9401539801898</v>
+        <v>437.0797035114991</v>
       </c>
       <c r="AD3" t="n">
-        <v>303750.5496626987</v>
+        <v>353149.8265945361</v>
       </c>
       <c r="AE3" t="n">
-        <v>415604.9025769947</v>
+        <v>483195.1726174226</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.757714244423743e-06</v>
+        <v>4.094773235459637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.748046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>375940.1539801898</v>
+        <v>437079.7035114991</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.6682172772397</v>
+        <v>353.0674942090771</v>
       </c>
       <c r="AB4" t="n">
-        <v>415.4922517749612</v>
+        <v>483.082521815389</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.838254412596</v>
+        <v>436.9778039439053</v>
       </c>
       <c r="AD4" t="n">
-        <v>303668.2172772397</v>
+        <v>353067.4942090771</v>
       </c>
       <c r="AE4" t="n">
-        <v>415492.2517749612</v>
+        <v>483082.521815389</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.764182612852132e-06</v>
+        <v>4.104377748317059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>375838.254412596</v>
+        <v>436977.8039439053</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>612.8261544305477</v>
+        <v>679.6942929122725</v>
       </c>
       <c r="AB2" t="n">
-        <v>838.495780473706</v>
+        <v>929.9877175584699</v>
       </c>
       <c r="AC2" t="n">
-        <v>758.470920021514</v>
+        <v>841.2309950406481</v>
       </c>
       <c r="AD2" t="n">
-        <v>612826.1544305477</v>
+        <v>679694.2929122725</v>
       </c>
       <c r="AE2" t="n">
-        <v>838495.780473706</v>
+        <v>929987.7175584699</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865822522157226e-06</v>
+        <v>2.74358469511995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.01171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>758470.9200215139</v>
+        <v>841230.995040648</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>343.8140652288276</v>
+        <v>393.8798506126873</v>
       </c>
       <c r="AB3" t="n">
-        <v>470.4215720521368</v>
+        <v>538.923788360899</v>
       </c>
       <c r="AC3" t="n">
-        <v>425.5251974563031</v>
+        <v>487.4896583840215</v>
       </c>
       <c r="AD3" t="n">
-        <v>343814.0652288276</v>
+        <v>393879.8506126873</v>
       </c>
       <c r="AE3" t="n">
-        <v>470421.5720521368</v>
+        <v>538923.7883608991</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.630053130887803e-06</v>
+        <v>3.867341846057981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.06705729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>425525.1974563031</v>
+        <v>487489.6583840215</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>311.9281175204087</v>
+        <v>362.0791542502889</v>
       </c>
       <c r="AB4" t="n">
-        <v>426.7938116887455</v>
+        <v>495.4126726501572</v>
       </c>
       <c r="AC4" t="n">
-        <v>386.0612093100478</v>
+        <v>448.1311824884785</v>
       </c>
       <c r="AD4" t="n">
-        <v>311928.1175204087</v>
+        <v>362079.1542502888</v>
       </c>
       <c r="AE4" t="n">
-        <v>426793.8116887455</v>
+        <v>495412.6726501572</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.747934580996921e-06</v>
+        <v>4.040679737801293e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.54947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>386061.2093100478</v>
+        <v>448131.1824884785</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>876.7894694244343</v>
+        <v>962.5241701617053</v>
       </c>
       <c r="AB2" t="n">
-        <v>1199.662033287919</v>
+        <v>1316.968033184705</v>
       </c>
       <c r="AC2" t="n">
-        <v>1085.167972567158</v>
+        <v>1191.2784524738</v>
       </c>
       <c r="AD2" t="n">
-        <v>876789.4694244342</v>
+        <v>962524.1701617053</v>
       </c>
       <c r="AE2" t="n">
-        <v>1199662.033287919</v>
+        <v>1316968.033184705</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511445224704591e-06</v>
+        <v>2.186717396433375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.26692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1085167.972567158</v>
+        <v>1191278.4524738</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.5435961477118</v>
+        <v>489.0356569062378</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.6664513104204</v>
+        <v>669.1201605096301</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.5305654309949</v>
+        <v>605.2602715066339</v>
       </c>
       <c r="AD3" t="n">
-        <v>437543.5961477117</v>
+        <v>489035.6569062378</v>
       </c>
       <c r="AE3" t="n">
-        <v>598666.4513104204</v>
+        <v>669120.1605096301</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.328340900323262e-06</v>
+        <v>3.36857960073236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>541530.5654309948</v>
+        <v>605260.2715066338</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.2269347334897</v>
+        <v>393.7189059834647</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.2499900891596</v>
+        <v>538.7035768188208</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.5608682280381</v>
+        <v>487.2904635224505</v>
       </c>
       <c r="AD4" t="n">
-        <v>342226.9347334896</v>
+        <v>393718.9059834647</v>
       </c>
       <c r="AE4" t="n">
-        <v>468249.9900891596</v>
+        <v>538703.5768188208</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.648228965003891e-06</v>
+        <v>3.831384857922711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.56901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>423560.8682280381</v>
+        <v>487290.4635224505</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>331.6871088663428</v>
+        <v>383.0084879157257</v>
       </c>
       <c r="AB5" t="n">
-        <v>453.8289353534289</v>
+        <v>524.0491103082431</v>
       </c>
       <c r="AC5" t="n">
-        <v>410.5161387162082</v>
+        <v>474.0345987279695</v>
       </c>
       <c r="AD5" t="n">
-        <v>331687.1088663428</v>
+        <v>383008.4879157257</v>
       </c>
       <c r="AE5" t="n">
-        <v>453828.9353534289</v>
+        <v>524049.1103082432</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.693026469795883e-06</v>
+        <v>3.896196656222978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.376953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>410516.1387162082</v>
+        <v>474034.5987279695</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.9388433980272</v>
+        <v>471.5242566843992</v>
       </c>
       <c r="AB2" t="n">
-        <v>567.7376313469932</v>
+        <v>645.1602901776564</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.5535486360058</v>
+        <v>583.5870975712545</v>
       </c>
       <c r="AD2" t="n">
-        <v>414938.8433980272</v>
+        <v>471524.2566843992</v>
       </c>
       <c r="AE2" t="n">
-        <v>567737.6313469933</v>
+        <v>645160.2901776565</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309372959218021e-06</v>
+        <v>3.467949840925745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.35221354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>513553.5486360057</v>
+        <v>583587.0975712545</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.2330726642512</v>
+        <v>350.7330555875005</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.5826706662673</v>
+        <v>479.8884399051844</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.160745606205</v>
+        <v>434.0885607282884</v>
       </c>
       <c r="AD3" t="n">
-        <v>294233.0726642511</v>
+        <v>350733.0555875005</v>
       </c>
       <c r="AE3" t="n">
-        <v>402582.6706662673</v>
+        <v>479888.4399051844</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.777621184217742e-06</v>
+        <v>4.171110995956937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.93359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>364160.745606205</v>
+        <v>434088.5607282884</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.0410772076476</v>
+        <v>352.963080297639</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.7929504798462</v>
+        <v>482.9396580953428</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.8737636270496</v>
+        <v>436.8485749367898</v>
       </c>
       <c r="AD2" t="n">
-        <v>298041.0772076476</v>
+        <v>352963.080297639</v>
       </c>
       <c r="AE2" t="n">
-        <v>407792.9504798462</v>
+        <v>482939.6580953429</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.708607987957376e-06</v>
+        <v>4.1543186955247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.74739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>368873.7636270496</v>
+        <v>436848.5749367898</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.9824945616821</v>
+        <v>339.2169873687363</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.5033304178339</v>
+        <v>464.1316473151982</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.3752932692009</v>
+        <v>419.8355743082932</v>
       </c>
       <c r="AD3" t="n">
-        <v>291982.4945616821</v>
+        <v>339216.9873687363</v>
       </c>
       <c r="AE3" t="n">
-        <v>399503.3304178339</v>
+        <v>464131.6473151981</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754637036345077e-06</v>
+        <v>4.224915598843457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.53255208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>361375.2932692009</v>
+        <v>419835.5743082932</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.344807230618</v>
+        <v>347.8520356606656</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.7355508293517</v>
+        <v>475.9465013396602</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.2990351010932</v>
+        <v>430.5228352469124</v>
       </c>
       <c r="AD2" t="n">
-        <v>294344.807230618</v>
+        <v>347852.0356606657</v>
       </c>
       <c r="AE2" t="n">
-        <v>402735.5508293516</v>
+        <v>475946.5013396603</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.684428893885022e-06</v>
+        <v>4.19436719535412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.30403645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>364299.0351010932</v>
+        <v>430522.8352469124</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.0148236098562</v>
+        <v>383.2636215371532</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.6996203050533</v>
+        <v>524.3981953847814</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.2581126829754</v>
+        <v>474.3503676147469</v>
       </c>
       <c r="AD2" t="n">
-        <v>325014.8236098562</v>
+        <v>383263.6215371532</v>
       </c>
       <c r="AE2" t="n">
-        <v>444699.6203050533</v>
+        <v>524398.1953847813</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.330121182900283e-06</v>
+        <v>3.797342878993136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.45182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>402258.1126829754</v>
+        <v>474350.3676147469</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.9224908556549</v>
+        <v>622.2148046234039</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.6376775580766</v>
+        <v>851.3417458655855</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.0434851736184</v>
+        <v>770.0908845058182</v>
       </c>
       <c r="AD2" t="n">
-        <v>555922.4908556549</v>
+        <v>622214.8046234039</v>
       </c>
       <c r="AE2" t="n">
-        <v>760637.6775580766</v>
+        <v>851341.7458655855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967956980382063e-06</v>
+        <v>2.907421867426634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>688043.4851736184</v>
+        <v>770090.8845058181</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.9579503455111</v>
+        <v>365.7411241808383</v>
       </c>
       <c r="AB3" t="n">
-        <v>432.3076067437275</v>
+        <v>500.4231414638462</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.0487755036422</v>
+        <v>452.6634591908262</v>
       </c>
       <c r="AD3" t="n">
-        <v>315957.9503455111</v>
+        <v>365741.1241808382</v>
       </c>
       <c r="AE3" t="n">
-        <v>432307.6067437275</v>
+        <v>500423.1414638461</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.710569249650535e-06</v>
+        <v>4.004542979429449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.826171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>391048.7755036422</v>
+        <v>452663.4591908262</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.7596634522446</v>
+        <v>357.5428372875717</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.0903489334689</v>
+        <v>489.2058836535875</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.9020770352745</v>
+        <v>442.5167607224583</v>
       </c>
       <c r="AD4" t="n">
-        <v>307759.6634522446</v>
+        <v>357542.8372875717</v>
       </c>
       <c r="AE4" t="n">
-        <v>421090.3489334689</v>
+        <v>489205.8836535875</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757444125684455e-06</v>
+        <v>4.073795021507866e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62434895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>380902.0770352745</v>
+        <v>442516.7607224584</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>799.7792156799239</v>
+        <v>884.8984518863982</v>
       </c>
       <c r="AB2" t="n">
-        <v>1094.293206662065</v>
+        <v>1210.757100835436</v>
       </c>
       <c r="AC2" t="n">
-        <v>989.8553988683985</v>
+        <v>1095.204142439965</v>
       </c>
       <c r="AD2" t="n">
-        <v>799779.2156799239</v>
+        <v>884898.4518863983</v>
       </c>
       <c r="AE2" t="n">
-        <v>1094293.206662065</v>
+        <v>1210757.100835436</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.594239606480689e-06</v>
+        <v>2.315105360019531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>989855.3988683985</v>
+        <v>1095204.142439965</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.5599960625197</v>
+        <v>465.1775350928947</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.9050786570097</v>
+        <v>636.4764256985646</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.9457167641531</v>
+        <v>575.7320089301668</v>
       </c>
       <c r="AD3" t="n">
-        <v>405559.9960625197</v>
+        <v>465177.5350928947</v>
       </c>
       <c r="AE3" t="n">
-        <v>554905.0786570096</v>
+        <v>636476.4256985646</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.403695787628324e-06</v>
+        <v>3.490572545791352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.8515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>501945.7167641532</v>
+        <v>575732.0089301668</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.2026366304941</v>
+        <v>379.2059414741417</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.0613267162749</v>
+        <v>518.8462985103587</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.2035439560033</v>
+        <v>469.3283359858829</v>
       </c>
       <c r="AD4" t="n">
-        <v>328202.636630494</v>
+        <v>379205.9414741417</v>
       </c>
       <c r="AE4" t="n">
-        <v>449061.3267162749</v>
+        <v>518846.2985103587</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.698725010041923e-06</v>
+        <v>3.919004841285443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.4453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>406203.5439560033</v>
+        <v>469328.3359858829</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.6143652204036</v>
+        <v>377.6176700640512</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.8881837033997</v>
+        <v>516.6731554974835</v>
       </c>
       <c r="AC5" t="n">
-        <v>404.2378026622516</v>
+        <v>467.3625946921312</v>
       </c>
       <c r="AD5" t="n">
-        <v>326614.3652204035</v>
+        <v>377617.6700640512</v>
       </c>
       <c r="AE5" t="n">
-        <v>446888.1837033997</v>
+        <v>516673.1554974836</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.708878798011771e-06</v>
+        <v>3.933749857566519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.40299479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>404237.8026622516</v>
+        <v>467362.5946921312</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.4001609898654</v>
+        <v>445.5017829535943</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.6931088174956</v>
+        <v>609.5551935886523</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.7167840461625</v>
+        <v>551.380101428638</v>
       </c>
       <c r="AD2" t="n">
-        <v>367400.1609898654</v>
+        <v>445501.7829535943</v>
       </c>
       <c r="AE2" t="n">
-        <v>502693.1088174956</v>
+        <v>609555.1935886523</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987537105180139e-06</v>
+        <v>3.313105938779026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.970703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>454716.7840461625</v>
+        <v>551380.101428638</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.2393544204804</v>
+        <v>380.8946897839267</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.9527862008408</v>
+        <v>521.1569184501238</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.4372922195863</v>
+        <v>471.4184336015722</v>
       </c>
       <c r="AD2" t="n">
-        <v>333239.3544204804</v>
+        <v>380894.6897839267</v>
       </c>
       <c r="AE2" t="n">
-        <v>455952.7862008408</v>
+        <v>521156.9184501239</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.590743917053068e-06</v>
+        <v>3.942870322548648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.13151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>412437.2922195863</v>
+        <v>471418.4336015722</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.5027404301095</v>
+        <v>343.0727349389841</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.3198861173033</v>
+        <v>469.4072512443886</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.7321636527913</v>
+        <v>424.6076820028384</v>
       </c>
       <c r="AD3" t="n">
-        <v>295502.7404301095</v>
+        <v>343072.7349389842</v>
       </c>
       <c r="AE3" t="n">
-        <v>404319.8861173033</v>
+        <v>469407.2512443886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.766428314348893e-06</v>
+        <v>4.210245570126375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.29817708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>365732.1636527913</v>
+        <v>424607.6820028384</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.0081903695742</v>
+        <v>518.2526187392521</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.825791374519</v>
+        <v>709.0960966509459</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.6704877766959</v>
+        <v>641.4209604092013</v>
       </c>
       <c r="AD2" t="n">
-        <v>453008.1903695742</v>
+        <v>518252.6187392521</v>
       </c>
       <c r="AE2" t="n">
-        <v>619825.791374519</v>
+        <v>709096.096650946</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.18944491451167e-06</v>
+        <v>3.268645726845137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>560670.487776696</v>
+        <v>641420.9604092012</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.956234142806</v>
+        <v>346.9535610609931</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.6768644555181</v>
+        <v>474.7171687544865</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.7687566899555</v>
+        <v>429.4108284382884</v>
       </c>
       <c r="AD3" t="n">
-        <v>297956.234142806</v>
+        <v>346953.5610609931</v>
       </c>
       <c r="AE3" t="n">
-        <v>407676.8644555181</v>
+        <v>474717.1687544865</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774564735178307e-06</v>
+        <v>4.142177364402216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.806640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>368768.7566899555</v>
+        <v>429410.8284382884</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.1601199503945</v>
+        <v>348.1574468685817</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.3240741291541</v>
+        <v>476.3643784281225</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.258758984213</v>
+        <v>430.900830732546</v>
       </c>
       <c r="AD4" t="n">
-        <v>299160.1199503945</v>
+        <v>348157.4468685817</v>
       </c>
       <c r="AE4" t="n">
-        <v>409324.0741291541</v>
+        <v>476364.3784281225</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.774564735178307e-06</v>
+        <v>4.142177364402216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.806640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>370258.758984213</v>
+        <v>430900.830732546</v>
       </c>
     </row>
   </sheetData>
